--- a/Section 5 - Supply chain statistical analysis/19.1 sku_distributions.xlsx
+++ b/Section 5 - Supply chain statistical analysis/19.1 sku_distributions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\-Hey-\SCM\Udemy - RA Data Science and Supply Chain analytics. A-Z with Python 2020-9\5. Supply chain statistical analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Products\Codes\Python\github_codes\Course-Data-Science-and-Supply-Chain-analytics-with-Python\Section 5 - Supply chain statistical analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0838FA-63E5-44D4-92FC-C85E4B31A19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D64828-3E3E-4C54-A66C-74BCCD32DF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2120" yWindow="2120" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19.1 sku_distributions" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>day</t>
   </si>
@@ -352,6 +352,9 @@
     <t>11. Calculate How much should I stock each day,
 to cover 90% of my Demand?
 =NORM.INV(0.9,mean,st dev.s)</t>
+  </si>
+  <si>
+    <t>to cover 60% of my demand in any given day, I should stock</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1630,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11537950" y="666750"/>
+              <a:off x="20008850" y="1403350"/>
               <a:ext cx="4572000" cy="3265932"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1960,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="K15" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2800,6 +2803,13 @@
       <c r="H26" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="L26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26">
+        <f>_xlfn.NORM.INV(0.6,$H$1,H2)</f>
+        <v>105.86157946937847</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
